--- a/data/outputs/management_altmetric/63.xlsx
+++ b/data/outputs/management_altmetric/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE49"/>
+  <dimension ref="A1:CF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1036,6 +1041,9 @@
       </c>
       <c r="CE2" t="n">
         <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1523,6 +1534,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1769,6 +1783,9 @@
       </c>
       <c r="CE5" t="n">
         <v>1</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -2009,6 +2026,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2260,6 +2280,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2518,6 +2541,9 @@
       </c>
       <c r="CE8" t="n">
         <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -2762,6 +2788,9 @@
       <c r="CE9" t="n">
         <v>1</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3001,6 +3030,9 @@
       <c r="CE10" t="n">
         <v>1</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3251,6 +3283,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="12">
@@ -3495,6 +3530,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3738,6 +3776,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3985,6 +4026,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4240,6 +4284,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4483,6 +4530,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4732,6 +4782,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4989,6 +5042,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5234,6 +5290,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5493,6 +5552,9 @@
       <c r="CE20" t="n">
         <v>1</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5747,6 +5809,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -5989,6 +6054,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6244,6 +6312,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6487,6 +6558,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6728,6 +6802,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6974,6 +7051,9 @@
       </c>
       <c r="CE26" t="n">
         <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -7196,6 +7276,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7425,6 +7508,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7662,6 +7748,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7903,6 +7992,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8146,6 +8238,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8389,6 +8484,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8644,6 +8742,9 @@
       <c r="CE33" t="n">
         <v>1</v>
       </c>
+      <c r="CF33" t="n">
+        <v>7.65</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8891,6 +8992,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9122,6 +9226,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9363,6 +9470,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9618,6 +9728,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9865,6 +9978,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10112,6 +10228,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10355,6 +10474,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10614,6 +10736,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10863,6 +10988,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11112,6 +11240,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11367,6 +11498,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11610,6 +11744,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11859,6 +11996,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12106,6 +12246,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12364,6 +12507,9 @@
       </c>
       <c r="CE48" t="n">
         <v>0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="49">
@@ -12608,6 +12754,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>30.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
